--- a/12/2/Tasas de Spreads soberanos EMBI 1990 a 2021 - Trimestral.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Serie</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4660,6 +4663,56 @@
         <v>165.9</v>
       </c>
     </row>
+    <row r="113" spans="1:16">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113">
+        <v>320</v>
+      </c>
+      <c r="C113">
+        <v>389.4</v>
+      </c>
+      <c r="D113">
+        <v>200.9</v>
+      </c>
+      <c r="E113">
+        <v>313</v>
+      </c>
+      <c r="F113">
+        <v>89.2</v>
+      </c>
+      <c r="G113">
+        <v>119</v>
+      </c>
+      <c r="H113">
+        <v>15.3</v>
+      </c>
+      <c r="I113">
+        <v>161.3</v>
+      </c>
+      <c r="J113">
+        <v>478.6</v>
+      </c>
+      <c r="K113">
+        <v>1569</v>
+      </c>
+      <c r="L113">
+        <v>283.9</v>
+      </c>
+      <c r="M113">
+        <v>275.9</v>
+      </c>
+      <c r="N113">
+        <v>141.3</v>
+      </c>
+      <c r="O113">
+        <v>356.3</v>
+      </c>
+      <c r="P113">
+        <v>175.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
